--- a/Week7/docs/SE1601_SWP391_OnlineShop_WeeklyReport_W7.xlsx
+++ b/Week7/docs/SE1601_SWP391_OnlineShop_WeeklyReport_W7.xlsx
@@ -68,36 +68,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-Pending: issue occurred, no solution yet
-In Progress: occurred and handling issue
-Completed: occurred and handled issue</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -342,13 +318,195 @@
     </r>
   </si>
   <si>
-    <t>Continue implementing Iteration 1</t>
+    <t>Continue implementing Iteration 3</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>The interface of each member is not uniform in terms of layout, color,... The BackEnd only completed three out of six screens (50%)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1 . T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ườ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i trong nhóm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>đề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> code front - end , back - end c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a màn hình </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>đượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c giao .</t>
+    </r>
+  </si>
+  <si>
+    <t>Start  implementating Iteration 4</t>
   </si>
   <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>The interface of each member is not uniform in terms of layout, color,... The BackEnd only completed three out of six screens (50%)</t>
+    <t>none</t>
   </si>
   <si>
     <r>
@@ -358,7 +516,7 @@
         <rFont val="Segoe UI Historic"/>
         <charset val="134"/>
       </rPr>
-      <t>1 . T</t>
+      <t>2. Ch</t>
     </r>
     <r>
       <rPr>
@@ -367,7 +525,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>ấ</t>
+      <t>ỉ</t>
     </r>
     <r>
       <rPr>
@@ -376,7 +534,7 @@
         <rFont val="Segoe UI Historic"/>
         <charset val="134"/>
       </rPr>
-      <t>t c</t>
+      <t xml:space="preserve"> có technical Leadder . làm tài li</t>
     </r>
     <r>
       <rPr>
@@ -385,7 +543,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>ả</t>
+      <t>ệ</t>
     </r>
     <r>
       <rPr>
@@ -394,7 +552,7 @@
         <rFont val="Segoe UI Historic"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> m</t>
+      <t>u ph</t>
     </r>
     <r>
       <rPr>
@@ -403,6 +561,95 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n chung là file Backlog , Weekly Meeting , v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ch ra khung ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ng trình c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a nhóm</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Chi có TL design databasse table diagram ( 20-25 tables )</t>
+  </si>
+  <si>
+    <t>II. Team Contribution</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4 . M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>ọ</t>
     </r>
     <r>
@@ -412,7 +659,7 @@
         <rFont val="Segoe UI Historic"/>
         <charset val="134"/>
       </rPr>
-      <t>i ng</t>
+      <t>i thành viên 1 ngày code 2 gi</t>
     </r>
     <r>
       <rPr>
@@ -421,7 +668,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>ườ</t>
+      <t>ờ</t>
     </r>
     <r>
       <rPr>
@@ -430,7 +677,7 @@
         <rFont val="Segoe UI Historic"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">i trong nhóm </t>
+      <t xml:space="preserve"> , vi</t>
     </r>
     <r>
       <rPr>
@@ -439,7 +686,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>đề</t>
+      <t>ế</t>
     </r>
     <r>
       <rPr>
@@ -448,7 +695,7 @@
         <rFont val="Segoe UI Historic"/>
         <charset val="134"/>
       </rPr>
-      <t>u ph</t>
+      <t>t docs 30 phút , h</t>
     </r>
     <r>
       <rPr>
@@ -457,7 +704,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>ả</t>
+      <t>ọ</t>
     </r>
     <r>
       <rPr>
@@ -466,274 +713,6 @@
         <rFont val="Segoe UI Historic"/>
         <charset val="134"/>
       </rPr>
-      <t>i t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ự</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> code front - end , back - end c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ủ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">a màn hình </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>đượ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c giao .</t>
-    </r>
-  </si>
-  <si>
-    <t>Start  implementating Iteration 2</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2. Ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ỉ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> có technical Leadder . làm tài li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ệ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>u ph</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ầ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n chung là file Backlog , Weekly Meeting , v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ch ra khung ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ươ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ng trình c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ủ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a nhóm</t>
-    </r>
-  </si>
-  <si>
-    <t>3. Chi có TL design databasse table diagram ( 20-25 tables )</t>
-  </si>
-  <si>
-    <t>II. Team Contribution</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4 . M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ọ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>i thành viên 1 ngày code 2 gi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ờ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> , vi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ế</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t docs 30 phút , h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ọ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Historic"/>
-        <charset val="134"/>
-      </rPr>
       <t>p nhóm hàng ngày 10 phút .</t>
     </r>
   </si>
@@ -750,7 +729,7 @@
     <t>5. Ai không code được thì kêu lên với nhóm , nhóm cùng giúp đỡ để code dc . Phải ghi vấn đề gặp phải đê nêu ra phương hướng giải quyết.</t>
   </si>
   <si>
-    <t>Cart Details &amp; Cart Completion (Place Order)</t>
+    <t>Order Information</t>
   </si>
   <si>
     <t>Bùi Thái Dương</t>
@@ -759,31 +738,46 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Orders List [Sale] + Sale DashBoard</t>
-  </si>
-  <si>
-    <t>Đỗ Đức Hữu&amp; Lê Thị Vân Anh</t>
-  </si>
-  <si>
-    <t>Customers List[Seller] &amp; Order Information</t>
-  </si>
-  <si>
-    <t>Phạm Tuyết Lan</t>
-  </si>
-  <si>
-    <t>Products List [Sale] + Sale DashBoard</t>
+    <t>Products List [Sale]</t>
+  </si>
+  <si>
+    <t>Orders List [Sale]</t>
+  </si>
+  <si>
+    <t>Trần Thị Tuyết Lan</t>
+  </si>
+  <si>
+    <t>Order Details [Sale]</t>
   </si>
   <si>
     <t>Phạm Anh Đức</t>
   </si>
   <si>
-    <t>User List &amp; My Orders (xem lịch sử order) (Tổng quát)</t>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Lê Thị Vân Anh</t>
+  </si>
+  <si>
+    <t>Blogs List</t>
   </si>
   <si>
     <t>Bùi Quốc Vũ</t>
   </si>
   <si>
-    <t>Feedback</t>
+    <t>Blog Details</t>
+  </si>
+  <si>
+    <t>Blog Management</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>About Shop</t>
   </si>
   <si>
     <t>III. Project Issues</t>
@@ -795,15 +789,6 @@
     <t>Notes (Solution, Suggestion, etc.)</t>
   </si>
   <si>
-    <t>1 số thành viên khi push code lên github bị lỗi</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Hướng dẫn trong meet</t>
-  </si>
-  <si>
     <t>IV. Next Week Plan</t>
   </si>
   <si>
@@ -813,7 +798,7 @@
     <t>Link Google Meet</t>
   </si>
   <si>
-    <t>Continue to execute Iteration 1 &amp; 2</t>
+    <t>Continue to execute Iteration 3&amp;4</t>
   </si>
   <si>
     <t>Each member's work will be reported every day</t>
@@ -848,10 +833,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -912,7 +897,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Sitka Display"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1109,24 +1094,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1139,9 +1123,87 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1153,77 +1215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,14 +1229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -1290,6 +1275,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFEF2CD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1302,7 +1293,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,49 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,73 +1443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,31 +1455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,6 +1651,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1697,24 +1697,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,7 +1710,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1746,166 +1733,164 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1943,39 +1928,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1984,7 +1969,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,17 +1992,17 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2057,10 +2042,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2705,12 +2690,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11:D16"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.6"/>
@@ -2806,28 +2791,28 @@
         <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S7" s="49"/>
     </row>
     <row r="8" ht="19.2" spans="6:19">
       <c r="F8" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S8" s="49"/>
     </row>
     <row r="9" ht="19.2" spans="1:19">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S9" s="49"/>
     </row>
@@ -2836,16 +2821,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -2861,91 +2846,91 @@
       <c r="R10" s="15"/>
       <c r="S10" s="50"/>
     </row>
-    <row r="11" ht="39.6" spans="1:19">
+    <row r="11" ht="19.2" spans="1:19">
       <c r="A11" s="9">
         <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
+      <c r="D11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" ht="19.2" spans="1:19">
       <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-    </row>
-    <row r="13" ht="31.2" spans="1:19">
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" ht="19.2" spans="1:19">
       <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-    </row>
-    <row r="14" ht="19.8" spans="1:19">
+      <c r="D13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="9">
         <v>4</v>
       </c>
@@ -2955,25 +2940,25 @@
       <c r="C14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>35</v>
+      <c r="D14" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="21"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-    </row>
-    <row r="15" ht="39.6" spans="1:4">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="9">
         <v>5</v>
       </c>
@@ -2983,11 +2968,11 @@
       <c r="C15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" ht="19.8" spans="1:4">
+      <c r="D15" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="9">
         <v>6</v>
       </c>
@@ -2995,190 +2980,251 @@
         <v>44</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="13" t="s">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" ht="31.2" spans="1:4">
-      <c r="A22" s="17">
+      <c r="D26" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" ht="16.35" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" ht="31.95" spans="1:6">
+      <c r="A30" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A31" s="32">
         <v>1</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="17">
-        <v>2</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" ht="16.35" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" ht="31.95" spans="1:6">
-      <c r="A25" s="27" t="s">
+      <c r="B31" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B34" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="39">
+        <v>1</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+    </row>
+    <row r="37" ht="16.35" spans="1:6">
+      <c r="A37" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" ht="16.35" spans="1:6">
+      <c r="A38" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A26" s="32">
+      <c r="C38" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" ht="16.35" spans="1:6">
+      <c r="A39" s="32">
         <v>1</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="37"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="39">
-        <v>1</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-    </row>
-    <row r="32" ht="16.35" spans="1:6">
-      <c r="A32" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-    </row>
-    <row r="33" ht="16.35" spans="1:6">
-      <c r="A33" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" ht="16.35" spans="1:6">
-      <c r="A34" s="32">
-        <v>1</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
+      <c r="B39" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3187,7 +3233,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId3" display="link"/>
+    <hyperlink ref="E31" r:id="rId3" display="link"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
